--- a/src/main/resources/excel-source/testFolder/source données envoie SMS convoc Med Fo MAJ 18 02 22 - Copie.xlsx
+++ b/src/main/resources/excel-source/testFolder/source données envoie SMS convoc Med Fo MAJ 18 02 22 - Copie.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>NOM</t>
   </si>
@@ -389,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -436,11 +436,18 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -723,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="R5" sqref="R5:T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,7 +754,7 @@
     <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -796,8 +803,11 @@
       <c r="P1" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="27" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+    </row>
+    <row r="2" spans="1:20" s="27" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>44</v>
       </c>
@@ -846,8 +856,114 @@
       <c r="P2" s="25" t="s">
         <v>20</v>
       </c>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+    </row>
+    <row r="3" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="R1:T2"/>
+    <mergeCell ref="R5:T15"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
@@ -924,14 +1040,14 @@
     <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="29"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E11" s="18" t="s">

--- a/src/main/resources/excel-source/testFolder/source données envoie SMS convoc Med Fo MAJ 18 02 22 - Copie.xlsx
+++ b/src/main/resources/excel-source/testFolder/source données envoie SMS convoc Med Fo MAJ 18 02 22 - Copie.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
   <si>
     <t>NOM</t>
   </si>
@@ -436,7 +436,12 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -444,10 +449,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -730,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5:T15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,9 +805,9 @@
       <c r="P1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
     </row>
     <row r="2" spans="1:20" s="27" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
@@ -856,113 +858,255 @@
       <c r="P2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-    </row>
-    <row r="3" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="28" t="s">
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+    </row>
+    <row r="3" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="28" t="s">
+      <c r="P3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+    </row>
+    <row r="4" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+    </row>
+    <row r="5" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+    </row>
+    <row r="6" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="R1:T2"/>
-    <mergeCell ref="R5:T15"/>
+    <mergeCell ref="R4:T14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -1040,14 +1184,14 @@
     <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="30"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E11" s="18" t="s">
